--- a/MyFrame/src/data/TestData.xlsx
+++ b/MyFrame/src/data/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\657392\eclipse-workspace\MyFrame\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\657392\git\TestCucumber_Project_Updated_Git\MyFrame\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>SearchValue</t>
   </si>
   <si>
-    <t>redmi note 5</t>
-  </si>
-  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>9300305</t>
+  </si>
+  <si>
+    <t>redmi note 4</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +409,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/MyFrame/src/data/TestData.xlsx
+++ b/MyFrame/src/data/TestData.xlsx
@@ -65,7 +65,7 @@
     <t>9300305</t>
   </si>
   <si>
-    <t>redmi note 4</t>
+    <t>redmi note 3</t>
   </si>
 </sst>
 </file>
